--- a/MainTop/22.08.2025 Таня Озон/Поставка по городам/7 Сибирь.xlsx
+++ b/MainTop/22.08.2025 Таня Озон/Поставка по городам/7 Сибирь.xlsx
@@ -592,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
